--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Allahu</t>
+  </si>
+  <si>
+    <t>akbar</t>
   </si>
 </sst>
 </file>
@@ -350,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4"/>
+  <dimension ref="B4:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -361,6 +364,11 @@
     <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -57,8 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,25 +356,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:B8"/>
+  <dimension ref="B4:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
